--- a/data/trans_orig/P36B_4_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B_4_R-Provincia-trans_orig.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB0315F3-AB92-443D-B1C0-0CB6771F92BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01ADCBCB-0329-4A88-8B48-B92B770CEBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{753E46DF-45C7-4A32-9958-17A7D0EF9577}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C079AFA1-61E1-4A7F-9C31-92333A93D255}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023" sheetId="2" r:id="rId1"/>
+    <sheet name="2007" sheetId="2" r:id="rId1"/>
+    <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
+    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,41 +39,1403 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="625">
+  <si>
+    <t>Población que consume frutas a diario en 2007 (Tasa respuesta: 99,92%)</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>n (muestra)</t>
+  </si>
+  <si>
+    <t>N (estimada)</t>
+  </si>
+  <si>
+    <t>Estimación puntual</t>
+  </si>
+  <si>
+    <t>lím inf IC</t>
+  </si>
+  <si>
+    <t>lím sup IC</t>
+  </si>
+  <si>
+    <t>Almeria</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume frutas a diario en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>Población que consume frutas a diario en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
   <si>
     <t>Población que consume frutas a diario en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>n (muestra)</t>
-  </si>
-  <si>
-    <t>N (estimada)</t>
-  </si>
-  <si>
-    <t>Estimación puntual</t>
-  </si>
-  <si>
-    <t>lím inf IC</t>
-  </si>
-  <si>
-    <t>lím sup IC</t>
-  </si>
-  <si>
-    <t>Almeria</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>49,09%</t>
   </si>
   <si>
@@ -98,9 +1463,6 @@
     <t>50,73%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>50,91%</t>
   </si>
   <si>
@@ -128,18 +1490,9 @@
     <t>57,0%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
     <t>66,3%</t>
   </si>
   <si>
-    <t>60,64%</t>
-  </si>
-  <si>
     <t>71,24%</t>
   </si>
   <si>
@@ -167,9 +1520,6 @@
     <t>28,76%</t>
   </si>
   <si>
-    <t>39,36%</t>
-  </si>
-  <si>
     <t>26,01%</t>
   </si>
   <si>
@@ -188,9 +1538,6 @@
     <t>33,15%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
     <t>70,29%</t>
   </si>
   <si>
@@ -245,9 +1592,6 @@
     <t>26,42%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
     <t>86,89%</t>
   </si>
   <si>
@@ -302,9 +1646,6 @@
     <t>15,88%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
     <t>93,84%</t>
   </si>
   <si>
@@ -359,9 +1700,6 @@
     <t>6,86%</t>
   </si>
   <si>
-    <t>Jaen</t>
-  </si>
-  <si>
     <t>72,18%</t>
   </si>
   <si>
@@ -416,9 +1754,6 @@
     <t>29,09%</t>
   </si>
   <si>
-    <t>Malaga</t>
-  </si>
-  <si>
     <t>73,81%</t>
   </si>
   <si>
@@ -473,9 +1808,6 @@
     <t>50,43%</t>
   </si>
   <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
     <t>87,66%</t>
   </si>
   <si>
@@ -582,9 +1914,6 @@
   </si>
   <si>
     <t>27,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
 </sst>
 </file>
@@ -996,7 +2325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C3C85A-78C5-4468-94D5-D4BCBCC6A0B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4EF90FA-6BAE-4CFC-A8BB-8D98493D0249}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1114,10 +2443,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="D4" s="7">
-        <v>127778</v>
+        <v>111681</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1129,10 +2458,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>261</v>
+        <v>126</v>
       </c>
       <c r="I4" s="7">
-        <v>121647</v>
+        <v>136461</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1144,10 +2473,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>435</v>
+        <v>238</v>
       </c>
       <c r="N4" s="7">
-        <v>249424</v>
+        <v>248143</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1165,10 +2494,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D5" s="7">
-        <v>132520</v>
+        <v>161329</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1180,10 +2509,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>277</v>
+        <v>119</v>
       </c>
       <c r="I5" s="7">
-        <v>149756</v>
+        <v>124377</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1195,10 +2524,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>434</v>
+        <v>278</v>
       </c>
       <c r="N5" s="7">
-        <v>282276</v>
+        <v>285705</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1216,10 +2545,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>331</v>
+        <v>271</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>273010</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1231,10 +2560,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>538</v>
+        <v>245</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>260838</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1246,10 +2575,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>869</v>
+        <v>516</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>533848</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1269,10 +2598,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D7" s="7">
-        <v>344309</v>
+        <v>259227</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1284,10 +2613,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>538</v>
+        <v>275</v>
       </c>
       <c r="I7" s="7">
-        <v>410345</v>
+        <v>276598</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1299,10 +2628,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>793</v>
+        <v>519</v>
       </c>
       <c r="N7" s="7">
-        <v>754655</v>
+        <v>535825</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1320,10 +2649,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>127</v>
+        <v>219</v>
       </c>
       <c r="D8" s="7">
-        <v>174988</v>
+        <v>231858</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1335,10 +2664,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="I8" s="7">
-        <v>144221</v>
+        <v>227351</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1350,10 +2679,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>306</v>
+        <v>443</v>
       </c>
       <c r="N8" s="7">
-        <v>319209</v>
+        <v>459209</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1371,10 +2700,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>382</v>
+        <v>463</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>491085</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1386,10 +2715,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>717</v>
+        <v>499</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>503949</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1401,10 +2730,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1099</v>
+        <v>962</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>995034</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1424,10 +2753,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>266</v>
+        <v>160</v>
       </c>
       <c r="D10" s="7">
-        <v>226487</v>
+        <v>162089</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1439,10 +2768,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>446</v>
+        <v>212</v>
       </c>
       <c r="I10" s="7">
-        <v>305499</v>
+        <v>215315</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1454,10 +2783,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>712</v>
+        <v>372</v>
       </c>
       <c r="N10" s="7">
-        <v>531987</v>
+        <v>377404</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1475,10 +2804,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="D11" s="7">
-        <v>95753</v>
+        <v>156757</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1490,10 +2819,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="I11" s="7">
-        <v>64439</v>
+        <v>120097</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1505,10 +2834,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>178</v>
+        <v>273</v>
       </c>
       <c r="N11" s="7">
-        <v>160192</v>
+        <v>276854</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1526,10 +2855,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>318846</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1541,10 +2870,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>530</v>
+        <v>335</v>
       </c>
       <c r="I12" s="7">
-        <v>369938</v>
+        <v>335412</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1556,10 +2885,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>890</v>
+        <v>645</v>
       </c>
       <c r="N12" s="7">
-        <v>692179</v>
+        <v>654258</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1579,10 +2908,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>253</v>
+        <v>174</v>
       </c>
       <c r="D13" s="7">
-        <v>279994</v>
+        <v>171491</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1594,10 +2923,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>525</v>
+        <v>224</v>
       </c>
       <c r="I13" s="7">
-        <v>374474</v>
+        <v>216673</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1609,10 +2938,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>778</v>
+        <v>398</v>
       </c>
       <c r="N13" s="7">
-        <v>654468</v>
+        <v>388164</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1630,10 +2959,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="D14" s="7">
-        <v>42246</v>
+        <v>187180</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1645,10 +2974,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="I14" s="7">
-        <v>54082</v>
+        <v>154783</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1660,10 +2989,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>113</v>
+        <v>348</v>
       </c>
       <c r="N14" s="7">
-        <v>96328</v>
+        <v>341963</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1681,10 +3010,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>292</v>
+        <v>362</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>358671</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1696,10 +3025,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>599</v>
+        <v>384</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>371456</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1711,10 +3040,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>891</v>
+        <v>746</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>730127</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1734,10 +3063,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>265</v>
+        <v>85</v>
       </c>
       <c r="D16" s="7">
-        <v>184638</v>
+        <v>84643</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1749,10 +3078,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>479</v>
+        <v>105</v>
       </c>
       <c r="I16" s="7">
-        <v>224350</v>
+        <v>113008</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1764,10 +3093,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>744</v>
+        <v>190</v>
       </c>
       <c r="N16" s="7">
-        <v>408988</v>
+        <v>197651</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1785,10 +3114,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="D17" s="7">
-        <v>12110</v>
+        <v>118665</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1800,10 +3129,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I17" s="7">
-        <v>7146</v>
+        <v>94660</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1815,10 +3144,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="N17" s="7">
-        <v>19256</v>
+        <v>213325</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1836,10 +3165,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>279</v>
+        <v>206</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>203308</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1851,10 +3180,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>491</v>
+        <v>198</v>
       </c>
       <c r="I18" s="7">
-        <v>231496</v>
+        <v>207668</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1866,10 +3195,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>770</v>
+        <v>404</v>
       </c>
       <c r="N18" s="7">
-        <v>428244</v>
+        <v>410976</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1889,10 +3218,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>284</v>
+        <v>145</v>
       </c>
       <c r="D19" s="7">
-        <v>200105</v>
+        <v>147598</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1904,10 +3233,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>380</v>
+        <v>154</v>
       </c>
       <c r="I19" s="7">
-        <v>211507</v>
+        <v>158777</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -1919,10 +3248,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>664</v>
+        <v>299</v>
       </c>
       <c r="N19" s="7">
-        <v>411612</v>
+        <v>306375</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -1940,10 +3269,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="D20" s="7">
-        <v>77118</v>
+        <v>123213</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -1955,10 +3284,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="I20" s="7">
-        <v>64115</v>
+        <v>119367</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -1970,10 +3299,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>167</v>
+        <v>237</v>
       </c>
       <c r="N20" s="7">
-        <v>141233</v>
+        <v>242580</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -1991,10 +3320,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>371</v>
+        <v>266</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>270811</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2006,10 +3335,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>460</v>
+        <v>270</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>278144</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2021,10 +3350,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>831</v>
+        <v>536</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>548955</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2044,10 +3373,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>452</v>
+        <v>264</v>
       </c>
       <c r="D22" s="7">
-        <v>462439</v>
+        <v>267016</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>127</v>
@@ -2059,10 +3388,10 @@
         <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>742</v>
+        <v>335</v>
       </c>
       <c r="I22" s="7">
-        <v>513723</v>
+        <v>344010</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>130</v>
@@ -2074,10 +3403,10 @@
         <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>1194</v>
+        <v>599</v>
       </c>
       <c r="N22" s="7">
-        <v>976161</v>
+        <v>611026</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>133</v>
@@ -2095,10 +3424,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>145</v>
+        <v>334</v>
       </c>
       <c r="D23" s="7">
-        <v>164079</v>
+        <v>348011</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>136</v>
@@ -2110,10 +3439,10 @@
         <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>218</v>
+        <v>285</v>
       </c>
       <c r="I23" s="7">
-        <v>290480</v>
+        <v>293233</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>139</v>
@@ -2125,10 +3454,10 @@
         <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>363</v>
+        <v>619</v>
       </c>
       <c r="N23" s="7">
-        <v>454559</v>
+        <v>641244</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>142</v>
@@ -2146,10 +3475,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D24" s="7">
-        <v>626518</v>
+        <v>615027</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2161,10 +3490,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>960</v>
+        <v>620</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>637243</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2176,10 +3505,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>1557</v>
+        <v>1218</v>
       </c>
       <c r="N24" s="7">
-        <v>1430720</v>
+        <v>1252270</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2199,10 +3528,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>666</v>
+        <v>348</v>
       </c>
       <c r="D25" s="7">
-        <v>753389</v>
+        <v>347914</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>146</v>
@@ -2214,10 +3543,10 @@
         <v>148</v>
       </c>
       <c r="H25" s="7">
-        <v>952</v>
+        <v>400</v>
       </c>
       <c r="I25" s="7">
-        <v>779730</v>
+        <v>424768</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>149</v>
@@ -2229,19 +3558,19 @@
         <v>151</v>
       </c>
       <c r="M25" s="7">
-        <v>1618</v>
+        <v>748</v>
       </c>
       <c r="N25" s="7">
-        <v>1533120</v>
+        <v>772682</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,49 +3579,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>96</v>
+        <v>387</v>
       </c>
       <c r="D26" s="7">
-        <v>106039</v>
+        <v>394999</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>344</v>
+      </c>
+      <c r="I26" s="7">
+        <v>357683</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H26" s="7">
-        <v>110</v>
-      </c>
-      <c r="I26" s="7">
-        <v>88704</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>731</v>
+      </c>
+      <c r="N26" s="7">
+        <v>752682</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M26" s="7">
-        <v>206</v>
-      </c>
-      <c r="N26" s="7">
-        <v>194742</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2301,10 +3630,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>762</v>
+        <v>735</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>742913</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2316,10 +3645,10 @@
         <v>30</v>
       </c>
       <c r="H27" s="7">
-        <v>1062</v>
+        <v>744</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>782451</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2331,10 +3660,10 @@
         <v>30</v>
       </c>
       <c r="M27" s="7">
-        <v>1824</v>
+        <v>1479</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1525364</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2354,49 +3683,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2615</v>
+        <v>1532</v>
       </c>
       <c r="D28" s="7">
-        <v>2579138</v>
+        <v>1551659</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1831</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1885611</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>3363</v>
+      </c>
+      <c r="N28" s="7">
+        <v>3437270</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H28" s="7">
-        <v>4323</v>
-      </c>
-      <c r="I28" s="7">
-        <v>2941275</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M28" s="7">
-        <v>6938</v>
-      </c>
-      <c r="N28" s="7">
-        <v>5520414</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,49 +3734,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>759</v>
+        <v>1679</v>
       </c>
       <c r="D29" s="7">
-        <v>804853</v>
+        <v>1722012</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1464</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1491551</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M29" s="7">
+        <v>3143</v>
+      </c>
+      <c r="N29" s="7">
+        <v>3213563</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="H29" s="7">
-        <v>1034</v>
-      </c>
-      <c r="I29" s="7">
-        <v>862943</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="M29" s="7">
-        <v>1793</v>
-      </c>
-      <c r="N29" s="7">
-        <v>1667796</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,6 +3785,4581 @@
         <v>3</v>
       </c>
       <c r="C30" s="7">
+        <v>3211</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3273671</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="7">
+        <v>3295</v>
+      </c>
+      <c r="I30" s="7">
+        <v>3377162</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="7">
+        <v>6506</v>
+      </c>
+      <c r="N30" s="7">
+        <v>6650833</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFC02AF-DE4E-4F94-A8A6-C9403BA00A68}">
+  <dimension ref="A1:Q31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>298</v>
+      </c>
+      <c r="D7" s="7">
+        <v>322892</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H7" s="7">
+        <v>307</v>
+      </c>
+      <c r="I7" s="7">
+        <v>335258</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M7" s="7">
+        <v>605</v>
+      </c>
+      <c r="N7" s="7">
+        <v>658150</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>173</v>
+      </c>
+      <c r="D8" s="7">
+        <v>181595</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="7">
+        <v>173</v>
+      </c>
+      <c r="I8" s="7">
+        <v>188507</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M8" s="7">
+        <v>346</v>
+      </c>
+      <c r="N8" s="7">
+        <v>370102</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>471</v>
+      </c>
+      <c r="D9" s="7">
+        <v>504487</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>480</v>
+      </c>
+      <c r="I9" s="7">
+        <v>523765</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>951</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1028252</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>218</v>
+      </c>
+      <c r="D10" s="7">
+        <v>224803</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10" s="7">
+        <v>264</v>
+      </c>
+      <c r="I10" s="7">
+        <v>282723</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="M10" s="7">
+        <v>482</v>
+      </c>
+      <c r="N10" s="7">
+        <v>507525</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>101</v>
+      </c>
+      <c r="D11" s="7">
+        <v>99243</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H11" s="7">
+        <v>52</v>
+      </c>
+      <c r="I11" s="7">
+        <v>57311</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="M11" s="7">
+        <v>153</v>
+      </c>
+      <c r="N11" s="7">
+        <v>156555</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>319</v>
+      </c>
+      <c r="D12" s="7">
+        <v>324046</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>316</v>
+      </c>
+      <c r="I12" s="7">
+        <v>340034</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>635</v>
+      </c>
+      <c r="N12" s="7">
+        <v>664080</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>382</v>
+      </c>
+      <c r="D13" s="7">
+        <v>408915</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H13" s="7">
+        <v>453</v>
+      </c>
+      <c r="I13" s="7">
+        <v>485982</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="M13" s="7">
+        <v>835</v>
+      </c>
+      <c r="N13" s="7">
+        <v>894897</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>244</v>
+      </c>
+      <c r="D14" s="7">
+        <v>259805</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H14" s="7">
+        <v>172</v>
+      </c>
+      <c r="I14" s="7">
+        <v>187975</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M14" s="7">
+        <v>416</v>
+      </c>
+      <c r="N14" s="7">
+        <v>447781</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>626</v>
+      </c>
+      <c r="D15" s="7">
+        <v>668720</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>625</v>
+      </c>
+      <c r="I15" s="7">
+        <v>673957</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1251</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1342678</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>114</v>
+      </c>
+      <c r="D16" s="7">
+        <v>123587</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H16" s="7">
+        <v>150</v>
+      </c>
+      <c r="I16" s="7">
+        <v>156862</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M16" s="7">
+        <v>264</v>
+      </c>
+      <c r="N16" s="7">
+        <v>280450</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>82</v>
+      </c>
+      <c r="D17" s="7">
+        <v>89031</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="7">
+        <v>62</v>
+      </c>
+      <c r="I17" s="7">
+        <v>62729</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M17" s="7">
+        <v>144</v>
+      </c>
+      <c r="N17" s="7">
+        <v>151759</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>196</v>
+      </c>
+      <c r="D18" s="7">
+        <v>212618</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>212</v>
+      </c>
+      <c r="I18" s="7">
+        <v>219591</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>408</v>
+      </c>
+      <c r="N18" s="7">
+        <v>432209</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>191</v>
+      </c>
+      <c r="D19" s="7">
+        <v>201723</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H19" s="7">
+        <v>216</v>
+      </c>
+      <c r="I19" s="7">
+        <v>223701</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M19" s="7">
+        <v>407</v>
+      </c>
+      <c r="N19" s="7">
+        <v>425424</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>69</v>
+      </c>
+      <c r="D20" s="7">
+        <v>71299</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H20" s="7">
+        <v>52</v>
+      </c>
+      <c r="I20" s="7">
+        <v>55243</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="M20" s="7">
+        <v>121</v>
+      </c>
+      <c r="N20" s="7">
+        <v>126542</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>260</v>
+      </c>
+      <c r="D21" s="7">
+        <v>273022</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>268</v>
+      </c>
+      <c r="I21" s="7">
+        <v>278944</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>528</v>
+      </c>
+      <c r="N21" s="7">
+        <v>551966</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>356</v>
+      </c>
+      <c r="D22" s="7">
+        <v>383594</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H22" s="7">
+        <v>439</v>
+      </c>
+      <c r="I22" s="7">
+        <v>474290</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M22" s="7">
+        <v>795</v>
+      </c>
+      <c r="N22" s="7">
+        <v>857884</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7">
+        <v>259</v>
+      </c>
+      <c r="D23" s="7">
+        <v>276131</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H23" s="7">
+        <v>195</v>
+      </c>
+      <c r="I23" s="7">
+        <v>216538</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="M23" s="7">
+        <v>454</v>
+      </c>
+      <c r="N23" s="7">
+        <v>492669</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <v>615</v>
+      </c>
+      <c r="D24" s="7">
+        <v>659725</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>634</v>
+      </c>
+      <c r="I24" s="7">
+        <v>690828</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1249</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1350553</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>341</v>
+      </c>
+      <c r="D25" s="7">
+        <v>377425</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H25" s="7">
+        <v>415</v>
+      </c>
+      <c r="I25" s="7">
+        <v>452985</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="M25" s="7">
+        <v>756</v>
+      </c>
+      <c r="N25" s="7">
+        <v>830410</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>376</v>
+      </c>
+      <c r="D26" s="7">
+        <v>401673</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H26" s="7">
+        <v>342</v>
+      </c>
+      <c r="I26" s="7">
+        <v>370868</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="M26" s="7">
+        <v>718</v>
+      </c>
+      <c r="N26" s="7">
+        <v>772541</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>717</v>
+      </c>
+      <c r="D27" s="7">
+        <v>779098</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
+        <v>757</v>
+      </c>
+      <c r="I27" s="7">
+        <v>823853</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
+        <v>1474</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1602951</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1900</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2042939</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H28" s="7">
+        <v>2244</v>
+      </c>
+      <c r="I28" s="7">
+        <v>2411801</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="M28" s="7">
+        <v>4144</v>
+      </c>
+      <c r="N28" s="7">
+        <v>4454740</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1304</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1378777</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1048</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1139171</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="M29" s="7">
+        <v>2352</v>
+      </c>
+      <c r="N29" s="7">
+        <v>2517949</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7">
+        <v>3204</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3421716</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="7">
+        <v>3292</v>
+      </c>
+      <c r="I30" s="7">
+        <v>3550972</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="7">
+        <v>6496</v>
+      </c>
+      <c r="N30" s="7">
+        <v>6972689</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE15F480-C819-480A-B6D7-947F28D35564}">
+  <dimension ref="A1:Q31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>158</v>
+      </c>
+      <c r="D4" s="7">
+        <v>175324</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H4" s="7">
+        <v>183</v>
+      </c>
+      <c r="I4" s="7">
+        <v>194337</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="M4" s="7">
+        <v>341</v>
+      </c>
+      <c r="N4" s="7">
+        <v>369661</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>106</v>
+      </c>
+      <c r="D5" s="7">
+        <v>116404</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H5" s="7">
+        <v>94</v>
+      </c>
+      <c r="I5" s="7">
+        <v>94366</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="M5" s="7">
+        <v>200</v>
+      </c>
+      <c r="N5" s="7">
+        <v>210770</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>264</v>
+      </c>
+      <c r="D6" s="7">
+        <v>291728</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>277</v>
+      </c>
+      <c r="I6" s="7">
+        <v>288703</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>541</v>
+      </c>
+      <c r="N6" s="7">
+        <v>580431</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>258</v>
+      </c>
+      <c r="D7" s="7">
+        <v>274839</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H7" s="7">
+        <v>291</v>
+      </c>
+      <c r="I7" s="7">
+        <v>316987</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="M7" s="7">
+        <v>549</v>
+      </c>
+      <c r="N7" s="7">
+        <v>591826</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>217</v>
+      </c>
+      <c r="D8" s="7">
+        <v>227736</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H8" s="7">
+        <v>193</v>
+      </c>
+      <c r="I8" s="7">
+        <v>206097</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="M8" s="7">
+        <v>410</v>
+      </c>
+      <c r="N8" s="7">
+        <v>433833</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>475</v>
+      </c>
+      <c r="D9" s="7">
+        <v>502575</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>484</v>
+      </c>
+      <c r="I9" s="7">
+        <v>523084</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>959</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1025659</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>172</v>
+      </c>
+      <c r="D10" s="7">
+        <v>161303</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H10" s="7">
+        <v>188</v>
+      </c>
+      <c r="I10" s="7">
+        <v>196755</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="M10" s="7">
+        <v>360</v>
+      </c>
+      <c r="N10" s="7">
+        <v>358058</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>163</v>
+      </c>
+      <c r="D11" s="7">
+        <v>157262</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H11" s="7">
+        <v>144</v>
+      </c>
+      <c r="I11" s="7">
+        <v>139554</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="M11" s="7">
+        <v>307</v>
+      </c>
+      <c r="N11" s="7">
+        <v>296816</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>335</v>
+      </c>
+      <c r="D12" s="7">
+        <v>318565</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>332</v>
+      </c>
+      <c r="I12" s="7">
+        <v>336309</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>667</v>
+      </c>
+      <c r="N12" s="7">
+        <v>654874</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>258</v>
+      </c>
+      <c r="D13" s="7">
+        <v>269267</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H13" s="7">
+        <v>276</v>
+      </c>
+      <c r="I13" s="7">
+        <v>299554</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="M13" s="7">
+        <v>534</v>
+      </c>
+      <c r="N13" s="7">
+        <v>568821</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>96</v>
+      </c>
+      <c r="D14" s="7">
+        <v>100697</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H14" s="7">
+        <v>82</v>
+      </c>
+      <c r="I14" s="7">
+        <v>87729</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="M14" s="7">
+        <v>178</v>
+      </c>
+      <c r="N14" s="7">
+        <v>188426</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>354</v>
+      </c>
+      <c r="D15" s="7">
+        <v>369964</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>358</v>
+      </c>
+      <c r="I15" s="7">
+        <v>387283</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>712</v>
+      </c>
+      <c r="N15" s="7">
+        <v>757247</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>129</v>
+      </c>
+      <c r="D16" s="7">
+        <v>128185</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H16" s="7">
+        <v>145</v>
+      </c>
+      <c r="I16" s="7">
+        <v>143643</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="M16" s="7">
+        <v>274</v>
+      </c>
+      <c r="N16" s="7">
+        <v>271828</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>83</v>
+      </c>
+      <c r="D17" s="7">
+        <v>83036</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="H17" s="7">
+        <v>78</v>
+      </c>
+      <c r="I17" s="7">
+        <v>74944</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="M17" s="7">
+        <v>161</v>
+      </c>
+      <c r="N17" s="7">
+        <v>157980</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>212</v>
+      </c>
+      <c r="D18" s="7">
+        <v>211221</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>223</v>
+      </c>
+      <c r="I18" s="7">
+        <v>218587</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>435</v>
+      </c>
+      <c r="N18" s="7">
+        <v>429808</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>98</v>
+      </c>
+      <c r="D19" s="7">
+        <v>96914</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H19" s="7">
+        <v>113</v>
+      </c>
+      <c r="I19" s="7">
+        <v>117764</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" s="7">
+        <v>211</v>
+      </c>
+      <c r="N19" s="7">
+        <v>214678</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>161</v>
+      </c>
+      <c r="D20" s="7">
+        <v>166209</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="H20" s="7">
+        <v>149</v>
+      </c>
+      <c r="I20" s="7">
+        <v>154339</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="M20" s="7">
+        <v>310</v>
+      </c>
+      <c r="N20" s="7">
+        <v>320548</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>259</v>
+      </c>
+      <c r="D21" s="7">
+        <v>263123</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>262</v>
+      </c>
+      <c r="I21" s="7">
+        <v>272103</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>521</v>
+      </c>
+      <c r="N21" s="7">
+        <v>535226</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>277</v>
+      </c>
+      <c r="D22" s="7">
+        <v>310163</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="H22" s="7">
+        <v>334</v>
+      </c>
+      <c r="I22" s="7">
+        <v>362909</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="M22" s="7">
+        <v>611</v>
+      </c>
+      <c r="N22" s="7">
+        <v>673072</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7">
+        <v>300</v>
+      </c>
+      <c r="D23" s="7">
+        <v>342615</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="H23" s="7">
+        <v>311</v>
+      </c>
+      <c r="I23" s="7">
+        <v>327273</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="M23" s="7">
+        <v>611</v>
+      </c>
+      <c r="N23" s="7">
+        <v>669888</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <v>577</v>
+      </c>
+      <c r="D24" s="7">
+        <v>652778</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>645</v>
+      </c>
+      <c r="I24" s="7">
+        <v>690182</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1222</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1342960</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>410</v>
+      </c>
+      <c r="D25" s="7">
+        <v>429624</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="H25" s="7">
+        <v>416</v>
+      </c>
+      <c r="I25" s="7">
+        <v>464364</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="M25" s="7">
+        <v>826</v>
+      </c>
+      <c r="N25" s="7">
+        <v>893988</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>339</v>
+      </c>
+      <c r="D26" s="7">
+        <v>347972</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="7">
+        <v>336</v>
+      </c>
+      <c r="I26" s="7">
+        <v>358098</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="M26" s="7">
+        <v>675</v>
+      </c>
+      <c r="N26" s="7">
+        <v>706070</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>749</v>
+      </c>
+      <c r="D27" s="7">
+        <v>777596</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
+        <v>752</v>
+      </c>
+      <c r="I27" s="7">
+        <v>822462</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
+        <v>1501</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1600058</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1760</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1845619</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1946</v>
+      </c>
+      <c r="I28" s="7">
+        <v>2096313</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="M28" s="7">
+        <v>3706</v>
+      </c>
+      <c r="N28" s="7">
+        <v>3941932</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1465</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1541931</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1387</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1442399</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="M29" s="7">
+        <v>2852</v>
+      </c>
+      <c r="N29" s="7">
+        <v>2984331</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7">
+        <v>3225</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3387550</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="7">
+        <v>3333</v>
+      </c>
+      <c r="I30" s="7">
+        <v>3538712</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="7">
+        <v>6558</v>
+      </c>
+      <c r="N30" s="7">
+        <v>6926263</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147201A6-9265-4544-922B-A2683F9A0591}">
+  <dimension ref="A1:Q31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>174</v>
+      </c>
+      <c r="D4" s="7">
+        <v>127778</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="H4" s="7">
+        <v>261</v>
+      </c>
+      <c r="I4" s="7">
+        <v>121647</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="M4" s="7">
+        <v>435</v>
+      </c>
+      <c r="N4" s="7">
+        <v>249424</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>157</v>
+      </c>
+      <c r="D5" s="7">
+        <v>132520</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="H5" s="7">
+        <v>277</v>
+      </c>
+      <c r="I5" s="7">
+        <v>149756</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="M5" s="7">
+        <v>434</v>
+      </c>
+      <c r="N5" s="7">
+        <v>282276</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>331</v>
+      </c>
+      <c r="D6" s="7">
+        <v>260298</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>538</v>
+      </c>
+      <c r="I6" s="7">
+        <v>271403</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>869</v>
+      </c>
+      <c r="N6" s="7">
+        <v>531700</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>255</v>
+      </c>
+      <c r="D7" s="7">
+        <v>344309</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="H7" s="7">
+        <v>538</v>
+      </c>
+      <c r="I7" s="7">
+        <v>410345</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="M7" s="7">
+        <v>793</v>
+      </c>
+      <c r="N7" s="7">
+        <v>754655</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>127</v>
+      </c>
+      <c r="D8" s="7">
+        <v>174988</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H8" s="7">
+        <v>179</v>
+      </c>
+      <c r="I8" s="7">
+        <v>144221</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="M8" s="7">
+        <v>306</v>
+      </c>
+      <c r="N8" s="7">
+        <v>319209</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>382</v>
+      </c>
+      <c r="D9" s="7">
+        <v>519297</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>717</v>
+      </c>
+      <c r="I9" s="7">
+        <v>554566</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1099</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1073864</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>266</v>
+      </c>
+      <c r="D10" s="7">
+        <v>226487</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="H10" s="7">
+        <v>446</v>
+      </c>
+      <c r="I10" s="7">
+        <v>305499</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="M10" s="7">
+        <v>712</v>
+      </c>
+      <c r="N10" s="7">
+        <v>531987</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>94</v>
+      </c>
+      <c r="D11" s="7">
+        <v>95753</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="H11" s="7">
+        <v>84</v>
+      </c>
+      <c r="I11" s="7">
+        <v>64439</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="M11" s="7">
+        <v>178</v>
+      </c>
+      <c r="N11" s="7">
+        <v>160192</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>360</v>
+      </c>
+      <c r="D12" s="7">
+        <v>322240</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>530</v>
+      </c>
+      <c r="I12" s="7">
+        <v>369938</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>890</v>
+      </c>
+      <c r="N12" s="7">
+        <v>692179</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>253</v>
+      </c>
+      <c r="D13" s="7">
+        <v>279994</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="H13" s="7">
+        <v>525</v>
+      </c>
+      <c r="I13" s="7">
+        <v>374474</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="M13" s="7">
+        <v>778</v>
+      </c>
+      <c r="N13" s="7">
+        <v>654468</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>39</v>
+      </c>
+      <c r="D14" s="7">
+        <v>42246</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="H14" s="7">
+        <v>74</v>
+      </c>
+      <c r="I14" s="7">
+        <v>54082</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="M14" s="7">
+        <v>113</v>
+      </c>
+      <c r="N14" s="7">
+        <v>96328</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>292</v>
+      </c>
+      <c r="D15" s="7">
+        <v>322240</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>599</v>
+      </c>
+      <c r="I15" s="7">
+        <v>428556</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>891</v>
+      </c>
+      <c r="N15" s="7">
+        <v>750796</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>265</v>
+      </c>
+      <c r="D16" s="7">
+        <v>184638</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="H16" s="7">
+        <v>479</v>
+      </c>
+      <c r="I16" s="7">
+        <v>224350</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="M16" s="7">
+        <v>744</v>
+      </c>
+      <c r="N16" s="7">
+        <v>408988</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7">
+        <v>12110</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="H17" s="7">
+        <v>12</v>
+      </c>
+      <c r="I17" s="7">
+        <v>7146</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="M17" s="7">
+        <v>26</v>
+      </c>
+      <c r="N17" s="7">
+        <v>19256</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>279</v>
+      </c>
+      <c r="D18" s="7">
+        <v>196748</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>491</v>
+      </c>
+      <c r="I18" s="7">
+        <v>231496</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>770</v>
+      </c>
+      <c r="N18" s="7">
+        <v>428244</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>284</v>
+      </c>
+      <c r="D19" s="7">
+        <v>200105</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="H19" s="7">
+        <v>380</v>
+      </c>
+      <c r="I19" s="7">
+        <v>211507</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="M19" s="7">
+        <v>664</v>
+      </c>
+      <c r="N19" s="7">
+        <v>411612</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>87</v>
+      </c>
+      <c r="D20" s="7">
+        <v>77118</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="H20" s="7">
+        <v>80</v>
+      </c>
+      <c r="I20" s="7">
+        <v>64115</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="M20" s="7">
+        <v>167</v>
+      </c>
+      <c r="N20" s="7">
+        <v>141233</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>371</v>
+      </c>
+      <c r="D21" s="7">
+        <v>277223</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>460</v>
+      </c>
+      <c r="I21" s="7">
+        <v>275622</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>831</v>
+      </c>
+      <c r="N21" s="7">
+        <v>552845</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>452</v>
+      </c>
+      <c r="D22" s="7">
+        <v>462439</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="H22" s="7">
+        <v>742</v>
+      </c>
+      <c r="I22" s="7">
+        <v>513723</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1194</v>
+      </c>
+      <c r="N22" s="7">
+        <v>976161</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7">
+        <v>145</v>
+      </c>
+      <c r="D23" s="7">
+        <v>164079</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="H23" s="7">
+        <v>218</v>
+      </c>
+      <c r="I23" s="7">
+        <v>290480</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="M23" s="7">
+        <v>363</v>
+      </c>
+      <c r="N23" s="7">
+        <v>454559</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <v>597</v>
+      </c>
+      <c r="D24" s="7">
+        <v>626518</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>960</v>
+      </c>
+      <c r="I24" s="7">
+        <v>804203</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1557</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1430720</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>666</v>
+      </c>
+      <c r="D25" s="7">
+        <v>753389</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="H25" s="7">
+        <v>952</v>
+      </c>
+      <c r="I25" s="7">
+        <v>779730</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1618</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1533120</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>96</v>
+      </c>
+      <c r="D26" s="7">
+        <v>106039</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="H26" s="7">
+        <v>110</v>
+      </c>
+      <c r="I26" s="7">
+        <v>88704</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="M26" s="7">
+        <v>206</v>
+      </c>
+      <c r="N26" s="7">
+        <v>194742</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>762</v>
+      </c>
+      <c r="D27" s="7">
+        <v>859428</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1062</v>
+      </c>
+      <c r="I27" s="7">
+        <v>868434</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
+        <v>1824</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1727862</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2615</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2579138</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="H28" s="7">
+        <v>4323</v>
+      </c>
+      <c r="I28" s="7">
+        <v>2941275</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="M28" s="7">
+        <v>6938</v>
+      </c>
+      <c r="N28" s="7">
+        <v>5520414</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7">
+        <v>759</v>
+      </c>
+      <c r="D29" s="7">
+        <v>804853</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1034</v>
+      </c>
+      <c r="I29" s="7">
+        <v>862943</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="M29" s="7">
+        <v>1793</v>
+      </c>
+      <c r="N29" s="7">
+        <v>1667796</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7">
         <v>3374</v>
       </c>
       <c r="D30" s="7">
@@ -2503,7 +8407,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B_4_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B_4_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01ADCBCB-0329-4A88-8B48-B92B770CEBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69738FD9-F9DD-4E7F-AA2B-310968A6BAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C079AFA1-61E1-4A7F-9C31-92333A93D255}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AC92B217-E6E9-4FE0-86AA-04E3EFC5CEC9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="633">
   <si>
     <t>Población que consume frutas a diario en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -77,1795 +77,1819 @@
     <t>40,91%</t>
   </si>
   <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
   </si>
   <si>
     <t>52,32%</t>
   </si>
   <si>
-    <t>46,16%</t>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume frutas a diario en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>Población que consume frutas a diario en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>Población que consume frutas a diario en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
   </si>
   <si>
     <t>59,37%</t>
   </si>
   <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
   </si>
   <si>
     <t>61,58%</t>
   </si>
   <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume frutas a diario en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>Población que consume frutas a diario en 2016 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>Población que consume frutas a diario en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
     <t>31,77%</t>
   </si>
   <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
   </si>
   <si>
     <t>87,66%</t>
   </si>
   <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
   </si>
   <si>
     <t>89,79%</t>
   </si>
   <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
   </si>
   <si>
     <t>88,73%</t>
   </si>
   <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
   </si>
   <si>
     <t>12,34%</t>
   </si>
   <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
   </si>
   <si>
     <t>10,21%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
   </si>
   <si>
     <t>11,27%</t>
   </si>
   <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
   </si>
   <si>
     <t>76,22%</t>
   </si>
   <si>
-    <t>74,28%</t>
+    <t>74,44%</t>
   </si>
   <si>
     <t>77,95%</t>
@@ -1874,19 +1898,19 @@
     <t>77,32%</t>
   </si>
   <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
   </si>
   <si>
     <t>76,8%</t>
   </si>
   <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
   </si>
   <si>
     <t>23,78%</t>
@@ -1895,25 +1919,25 @@
     <t>22,05%</t>
   </si>
   <si>
-    <t>25,72%</t>
+    <t>25,56%</t>
   </si>
   <si>
     <t>22,68%</t>
   </si>
   <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
   </si>
   <si>
     <t>23,2%</t>
   </si>
   <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
   </si>
 </sst>
 </file>
@@ -2325,7 +2349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4EF90FA-6BAE-4CFC-A8BB-8D98493D0249}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB73BE9-B78F-4CB2-94CC-604AA6722CA0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3412,10 +3436,10 @@
         <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,13 +3454,13 @@
         <v>348011</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>285</v>
@@ -3445,13 +3469,13 @@
         <v>293233</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>619</v>
@@ -3460,13 +3484,13 @@
         <v>641244</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,7 +3546,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3534,13 +3558,13 @@
         <v>347914</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>400</v>
@@ -3549,13 +3573,13 @@
         <v>424768</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M25" s="7">
         <v>748</v>
@@ -3564,13 +3588,13 @@
         <v>772682</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,13 +3609,13 @@
         <v>394999</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>344</v>
@@ -3600,13 +3624,13 @@
         <v>357683</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>731</v>
@@ -3615,13 +3639,13 @@
         <v>752682</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,10 +3716,10 @@
         <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>1831</v>
@@ -3704,13 +3728,13 @@
         <v>1885611</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>3363</v>
@@ -3719,13 +3743,13 @@
         <v>3437270</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,13 +3764,13 @@
         <v>1722012</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>1464</v>
@@ -3755,13 +3779,13 @@
         <v>1491551</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>3143</v>
@@ -3770,13 +3794,13 @@
         <v>3213563</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,7 +3856,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3856,7 +3880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFC02AF-DE4E-4F94-A8A6-C9403BA00A68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933B5380-3FF2-4FF8-AF19-0596CBBEB422}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3873,7 +3897,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3978,39 +4002,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,39 +4047,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,39 +4092,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4141,13 @@
         <v>322892</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>307</v>
@@ -4132,13 +4156,13 @@
         <v>335258</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>605</v>
@@ -4147,13 +4171,13 @@
         <v>658150</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4192,13 @@
         <v>181595</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>173</v>
@@ -4183,13 +4207,13 @@
         <v>188507</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>346</v>
@@ -4198,13 +4222,13 @@
         <v>370102</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,13 +4296,13 @@
         <v>224803</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>264</v>
@@ -4287,13 +4311,13 @@
         <v>282723</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>482</v>
@@ -4302,13 +4326,13 @@
         <v>507525</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,13 +4347,13 @@
         <v>99243</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>52</v>
@@ -4338,13 +4362,13 @@
         <v>57311</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>153</v>
@@ -4353,13 +4377,13 @@
         <v>156555</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,13 +4451,13 @@
         <v>408915</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>453</v>
@@ -4442,13 +4466,13 @@
         <v>485982</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>835</v>
@@ -4457,13 +4481,13 @@
         <v>894897</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,13 +4502,13 @@
         <v>259805</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
         <v>172</v>
@@ -4493,13 +4517,13 @@
         <v>187975</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>416</v>
@@ -4508,13 +4532,13 @@
         <v>447781</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,13 +4606,13 @@
         <v>123587</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>36</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>150</v>
@@ -4597,13 +4621,13 @@
         <v>156862</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>232</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M16" s="7">
         <v>264</v>
@@ -4612,13 +4636,13 @@
         <v>280450</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4657,13 @@
         <v>89031</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>46</v>
+        <v>241</v>
       </c>
       <c r="H17" s="7">
         <v>62</v>
@@ -4648,13 +4672,13 @@
         <v>62729</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>241</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>144</v>
@@ -4663,13 +4687,13 @@
         <v>151759</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4761,13 @@
         <v>201723</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H19" s="7">
         <v>216</v>
@@ -4752,13 +4776,13 @@
         <v>223701</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M19" s="7">
         <v>407</v>
@@ -4767,13 +4791,13 @@
         <v>425424</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4812,13 @@
         <v>71299</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -4803,13 +4827,13 @@
         <v>55243</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
         <v>121</v>
@@ -4818,13 +4842,13 @@
         <v>126542</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +4916,13 @@
         <v>383594</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
         <v>439</v>
@@ -4907,13 +4931,13 @@
         <v>474290</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
         <v>795</v>
@@ -4922,13 +4946,13 @@
         <v>857884</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4967,13 @@
         <v>276131</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H23" s="7">
         <v>195</v>
@@ -4958,13 +4982,13 @@
         <v>216538</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
         <v>454</v>
@@ -4973,13 +4997,13 @@
         <v>492669</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,7 +5059,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5047,13 +5071,13 @@
         <v>377425</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H25" s="7">
         <v>415</v>
@@ -5062,13 +5086,13 @@
         <v>452985</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M25" s="7">
         <v>756</v>
@@ -5077,13 +5101,13 @@
         <v>830410</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5122,13 @@
         <v>401673</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H26" s="7">
         <v>342</v>
@@ -5113,13 +5137,13 @@
         <v>370868</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>718</v>
@@ -5128,13 +5152,13 @@
         <v>772541</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,16 +5223,16 @@
         <v>1900</v>
       </c>
       <c r="D28" s="7">
-        <v>2042939</v>
+        <v>2042940</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H28" s="7">
         <v>2244</v>
@@ -5217,13 +5241,13 @@
         <v>2411801</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M28" s="7">
         <v>4144</v>
@@ -5232,13 +5256,13 @@
         <v>4454740</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5277,13 @@
         <v>1378777</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H29" s="7">
         <v>1048</v>
@@ -5268,13 +5292,13 @@
         <v>1139171</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M29" s="7">
         <v>2352</v>
@@ -5283,13 +5307,13 @@
         <v>2517949</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,7 +5325,7 @@
         <v>3204</v>
       </c>
       <c r="D30" s="7">
-        <v>3421716</v>
+        <v>3421717</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -5345,7 +5369,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5369,7 +5393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE15F480-C819-480A-B6D7-947F28D35564}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F7A50E-E3BC-47C0-9682-C038D00153F0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5386,7 +5410,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5493,13 +5517,13 @@
         <v>175324</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>183</v>
@@ -5508,13 +5532,13 @@
         <v>194337</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M4" s="7">
         <v>341</v>
@@ -5523,13 +5547,13 @@
         <v>369661</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5568,13 @@
         <v>116404</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -5559,13 +5583,13 @@
         <v>94366</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M5" s="7">
         <v>200</v>
@@ -5574,13 +5598,13 @@
         <v>210770</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,13 +5672,13 @@
         <v>274839</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H7" s="7">
         <v>291</v>
@@ -5663,13 +5687,13 @@
         <v>316987</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>341</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M7" s="7">
         <v>549</v>
@@ -5678,13 +5702,13 @@
         <v>591826</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>138</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,13 +5723,13 @@
         <v>227736</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H8" s="7">
         <v>193</v>
@@ -5714,13 +5738,13 @@
         <v>206097</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>350</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="M8" s="7">
         <v>410</v>
@@ -5729,13 +5753,13 @@
         <v>433833</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>128</v>
+        <v>354</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5827,13 @@
         <v>161303</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>356</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="H10" s="7">
         <v>188</v>
@@ -5818,13 +5842,13 @@
         <v>196755</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="M10" s="7">
         <v>360</v>
@@ -5833,13 +5857,13 @@
         <v>358058</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>357</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5878,13 @@
         <v>157262</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>364</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="H11" s="7">
         <v>144</v>
@@ -5869,13 +5893,13 @@
         <v>139554</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="M11" s="7">
         <v>307</v>
@@ -5884,13 +5908,13 @@
         <v>296816</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>364</v>
+        <v>296</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +5982,13 @@
         <v>269267</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="H13" s="7">
         <v>276</v>
@@ -5973,13 +5997,13 @@
         <v>299554</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="M13" s="7">
         <v>534</v>
@@ -5988,13 +6012,13 @@
         <v>568821</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +6033,13 @@
         <v>100697</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="H14" s="7">
         <v>82</v>
@@ -6024,13 +6048,13 @@
         <v>87729</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="M14" s="7">
         <v>178</v>
@@ -6039,13 +6063,13 @@
         <v>188426</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6137,13 @@
         <v>128185</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="H16" s="7">
         <v>145</v>
@@ -6128,13 +6152,13 @@
         <v>143643</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="M16" s="7">
         <v>274</v>
@@ -6143,13 +6167,13 @@
         <v>271828</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,13 +6188,13 @@
         <v>83036</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="H17" s="7">
         <v>78</v>
@@ -6179,13 +6203,13 @@
         <v>74944</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>161</v>
@@ -6194,13 +6218,13 @@
         <v>157980</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,13 +6292,13 @@
         <v>96914</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>83</v>
+        <v>408</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="H19" s="7">
         <v>113</v>
@@ -6283,13 +6307,13 @@
         <v>117764</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="M19" s="7">
         <v>211</v>
@@ -6298,13 +6322,13 @@
         <v>214678</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>407</v>
+        <v>230</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,13 +6343,13 @@
         <v>166209</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>75</v>
+        <v>415</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>149</v>
@@ -6334,13 +6358,13 @@
         <v>154339</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="M20" s="7">
         <v>310</v>
@@ -6349,13 +6373,13 @@
         <v>320548</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>415</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,13 +6447,13 @@
         <v>310163</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>416</v>
+        <v>293</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="H22" s="7">
         <v>334</v>
@@ -6438,13 +6462,13 @@
         <v>362909</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="M22" s="7">
         <v>611</v>
@@ -6453,13 +6477,13 @@
         <v>673072</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,13 +6498,13 @@
         <v>342615</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>425</v>
+        <v>285</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="H23" s="7">
         <v>311</v>
@@ -6489,13 +6513,13 @@
         <v>327273</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="M23" s="7">
         <v>611</v>
@@ -6504,13 +6528,13 @@
         <v>669888</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,7 +6590,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6578,13 +6602,13 @@
         <v>429624</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>115</v>
+        <v>439</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="H25" s="7">
         <v>416</v>
@@ -6593,13 +6617,13 @@
         <v>464364</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="M25" s="7">
         <v>826</v>
@@ -6608,13 +6632,13 @@
         <v>893988</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>29</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6629,13 +6653,13 @@
         <v>347972</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>125</v>
+        <v>449</v>
       </c>
       <c r="H26" s="7">
         <v>336</v>
@@ -6644,13 +6668,13 @@
         <v>358098</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="M26" s="7">
         <v>675</v>
@@ -6659,13 +6683,13 @@
         <v>706070</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>18</v>
+        <v>454</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,13 +6757,13 @@
         <v>1845619</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="H28" s="7">
         <v>1946</v>
@@ -6748,13 +6772,13 @@
         <v>2096313</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>451</v>
+        <v>272</v>
       </c>
       <c r="M28" s="7">
         <v>3706</v>
@@ -6763,13 +6787,13 @@
         <v>3941932</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>452</v>
+        <v>78</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,13 +6808,13 @@
         <v>1541931</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="H29" s="7">
         <v>1387</v>
@@ -6799,13 +6823,13 @@
         <v>1442399</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>459</v>
+        <v>282</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="M29" s="7">
         <v>2852</v>
@@ -6814,13 +6838,13 @@
         <v>2984331</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>461</v>
+        <v>86</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6876,7 +6900,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6900,7 +6924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147201A6-9265-4544-922B-A2683F9A0591}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB089510-2BD1-4CC4-AAB9-166FCD93FDBF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6917,7 +6941,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7024,13 +7048,13 @@
         <v>127778</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="H4" s="7">
         <v>261</v>
@@ -7039,13 +7063,13 @@
         <v>121647</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="M4" s="7">
         <v>435</v>
@@ -7054,13 +7078,13 @@
         <v>249424</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7075,13 +7099,13 @@
         <v>132520</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="H5" s="7">
         <v>277</v>
@@ -7090,13 +7114,13 @@
         <v>149756</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="M5" s="7">
         <v>434</v>
@@ -7105,13 +7129,13 @@
         <v>282276</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7179,13 +7203,13 @@
         <v>344309</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>270</v>
+        <v>490</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="H7" s="7">
         <v>538</v>
@@ -7194,13 +7218,13 @@
         <v>410345</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="M7" s="7">
         <v>793</v>
@@ -7209,13 +7233,13 @@
         <v>754655</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7230,13 +7254,13 @@
         <v>174988</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="H8" s="7">
         <v>179</v>
@@ -7245,13 +7269,13 @@
         <v>144221</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="M8" s="7">
         <v>306</v>
@@ -7260,13 +7284,13 @@
         <v>319209</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7334,13 +7358,13 @@
         <v>226487</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="H10" s="7">
         <v>446</v>
@@ -7349,13 +7373,13 @@
         <v>305499</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="M10" s="7">
         <v>712</v>
@@ -7364,13 +7388,13 @@
         <v>531987</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,13 +7409,13 @@
         <v>95753</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="H11" s="7">
         <v>84</v>
@@ -7400,13 +7424,13 @@
         <v>64439</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="M11" s="7">
         <v>178</v>
@@ -7415,13 +7439,13 @@
         <v>160192</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7489,13 +7513,13 @@
         <v>279994</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="H13" s="7">
         <v>525</v>
@@ -7504,13 +7528,13 @@
         <v>374474</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="M13" s="7">
         <v>778</v>
@@ -7519,13 +7543,13 @@
         <v>654468</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7540,13 +7564,13 @@
         <v>42246</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="H14" s="7">
         <v>74</v>
@@ -7555,13 +7579,13 @@
         <v>54082</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="M14" s="7">
         <v>113</v>
@@ -7570,13 +7594,13 @@
         <v>96328</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7644,13 +7668,13 @@
         <v>184638</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="H16" s="7">
         <v>479</v>
@@ -7659,13 +7683,13 @@
         <v>224350</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="M16" s="7">
         <v>744</v>
@@ -7674,13 +7698,13 @@
         <v>408988</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7695,13 +7719,13 @@
         <v>12110</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -7710,13 +7734,13 @@
         <v>7146</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -7725,13 +7749,13 @@
         <v>19256</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,13 +7823,13 @@
         <v>200105</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="H19" s="7">
         <v>380</v>
@@ -7814,13 +7838,13 @@
         <v>211507</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="M19" s="7">
         <v>664</v>
@@ -7829,13 +7853,13 @@
         <v>411612</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7850,13 +7874,13 @@
         <v>77118</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="H20" s="7">
         <v>80</v>
@@ -7865,13 +7889,13 @@
         <v>64115</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="M20" s="7">
         <v>167</v>
@@ -7880,13 +7904,13 @@
         <v>141233</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7954,13 +7978,13 @@
         <v>462439</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="H22" s="7">
         <v>742</v>
@@ -7969,13 +7993,13 @@
         <v>513723</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="M22" s="7">
         <v>1194</v>
@@ -7984,13 +8008,13 @@
         <v>976161</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,13 +8029,13 @@
         <v>164079</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="H23" s="7">
         <v>218</v>
@@ -8020,13 +8044,13 @@
         <v>290480</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="M23" s="7">
         <v>363</v>
@@ -8035,13 +8059,13 @@
         <v>454559</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8097,7 +8121,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8109,13 +8133,13 @@
         <v>753389</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="H25" s="7">
         <v>952</v>
@@ -8124,13 +8148,13 @@
         <v>779730</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="M25" s="7">
         <v>1618</v>
@@ -8139,13 +8163,13 @@
         <v>1533120</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8160,13 +8184,13 @@
         <v>106039</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="H26" s="7">
         <v>110</v>
@@ -8175,13 +8199,13 @@
         <v>88704</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="M26" s="7">
         <v>206</v>
@@ -8190,13 +8214,13 @@
         <v>194742</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8264,13 +8288,13 @@
         <v>2579138</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="H28" s="7">
         <v>4323</v>
@@ -8279,13 +8303,13 @@
         <v>2941275</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="M28" s="7">
         <v>6938</v>
@@ -8294,13 +8318,13 @@
         <v>5520414</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8315,13 +8339,13 @@
         <v>804853</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="H29" s="7">
         <v>1034</v>
@@ -8330,13 +8354,13 @@
         <v>862943</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="M29" s="7">
         <v>1793</v>
@@ -8345,13 +8369,13 @@
         <v>1667796</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8407,7 +8431,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B_4_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B_4_R-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69738FD9-F9DD-4E7F-AA2B-310968A6BAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD0A4349-DA89-40E9-A961-708090F4AB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AC92B217-E6E9-4FE0-86AA-04E3EFC5CEC9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C8CBD7C1-01F2-47E4-AA0A-0D078CB9166B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="642">
   <si>
     <t>Población que consume frutas a diario en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -581,7 +581,58 @@
     <t>Población que consume frutas a diario en 2012 (Tasa respuesta: 99,83%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
   </si>
   <si>
     <t>64,0%</t>
@@ -686,627 +737,621 @@
     <t>26,99%</t>
   </si>
   <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>Población que consume frutas a diario en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
   </si>
   <si>
     <t>64,08%</t>
   </si>
   <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>Población que consume frutas a diario en 2016 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
     <t>43,2%</t>
   </si>
   <si>
@@ -1454,490 +1499,472 @@
     <t>Población que consume frutas a diario en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
   <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
   </si>
   <si>
     <t>96,47%</t>
   </si>
   <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
   </si>
   <si>
     <t>3,53%</t>
   </si>
   <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
   </si>
 </sst>
 </file>
@@ -2349,7 +2376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB73BE9-B78F-4CB2-94CC-604AA6722CA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB33444F-5E45-401B-9834-1E66029C5291}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3880,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933B5380-3FF2-4FF8-AF19-0596CBBEB422}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A714037-6CF1-4D0D-866E-69ED3C951344}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3998,43 +4025,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>176</v>
+      </c>
+      <c r="D4" s="7">
+        <v>185814</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>171</v>
+      </c>
+      <c r="I4" s="7">
+        <v>190787</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>347</v>
+      </c>
+      <c r="N4" s="7">
+        <v>376602</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,43 +4076,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>106</v>
+      </c>
+      <c r="D5" s="7">
+        <v>108924</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="I5" s="7">
+        <v>94219</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>189</v>
+      </c>
+      <c r="N5" s="7">
+        <v>203142</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,43 +4127,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>254</v>
+      </c>
+      <c r="I6" s="7">
+        <v>285006</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>536</v>
+      </c>
+      <c r="N6" s="7">
+        <v>579744</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4186,13 @@
         <v>322892</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7">
         <v>307</v>
@@ -4156,13 +4201,13 @@
         <v>335258</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="M7" s="7">
         <v>605</v>
@@ -4171,13 +4216,13 @@
         <v>658150</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,13 +4237,13 @@
         <v>181595</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="H8" s="7">
         <v>173</v>
@@ -4207,13 +4252,13 @@
         <v>188507</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="M8" s="7">
         <v>346</v>
@@ -4222,13 +4267,13 @@
         <v>370102</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4296,13 +4341,13 @@
         <v>224803</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>264</v>
@@ -4311,13 +4356,13 @@
         <v>282723</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="M10" s="7">
         <v>482</v>
@@ -4326,13 +4371,13 @@
         <v>507525</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,13 +4392,13 @@
         <v>99243</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="H11" s="7">
         <v>52</v>
@@ -4362,13 +4407,13 @@
         <v>57311</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="M11" s="7">
         <v>153</v>
@@ -4377,13 +4422,13 @@
         <v>156555</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,49 +4490,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>382</v>
+        <v>206</v>
       </c>
       <c r="D13" s="7">
-        <v>408915</v>
+        <v>223100</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="H13" s="7">
-        <v>453</v>
+        <v>282</v>
       </c>
       <c r="I13" s="7">
-        <v>485982</v>
+        <v>295194</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="M13" s="7">
-        <v>835</v>
+        <v>488</v>
       </c>
       <c r="N13" s="7">
-        <v>894897</v>
+        <v>518294</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,49 +4541,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>138</v>
+      </c>
+      <c r="D14" s="7">
+        <v>150882</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H14" s="7">
+        <v>89</v>
+      </c>
+      <c r="I14" s="7">
+        <v>93757</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="D14" s="7">
-        <v>259805</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H14" s="7">
-        <v>172</v>
-      </c>
-      <c r="I14" s="7">
-        <v>187975</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M14" s="7">
         <v>227</v>
       </c>
-      <c r="M14" s="7">
-        <v>416</v>
-      </c>
       <c r="N14" s="7">
-        <v>447781</v>
+        <v>244639</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,10 +4592,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4562,10 +4607,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>625</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>673957</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4577,10 +4622,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1251</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1342678</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4606,13 +4651,13 @@
         <v>123587</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>150</v>
@@ -4621,13 +4666,13 @@
         <v>156862</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="M16" s="7">
         <v>264</v>
@@ -4636,13 +4681,13 @@
         <v>280450</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4657,13 +4702,13 @@
         <v>89031</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="H17" s="7">
         <v>62</v>
@@ -4672,10 +4717,10 @@
         <v>62729</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>90</v>
@@ -4687,13 +4732,13 @@
         <v>151759</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,13 +4806,13 @@
         <v>201723</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="H19" s="7">
         <v>216</v>
@@ -4776,13 +4821,13 @@
         <v>223701</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="M19" s="7">
         <v>407</v>
@@ -4791,13 +4836,13 @@
         <v>425424</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,13 +4857,13 @@
         <v>71299</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -4827,13 +4872,13 @@
         <v>55243</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="M20" s="7">
         <v>121</v>
@@ -4842,13 +4887,13 @@
         <v>126542</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,13 +4961,13 @@
         <v>383594</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="H22" s="7">
         <v>439</v>
@@ -4931,13 +4976,13 @@
         <v>474290</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="M22" s="7">
         <v>795</v>
@@ -4946,13 +4991,13 @@
         <v>857884</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +5012,13 @@
         <v>276131</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="H23" s="7">
         <v>195</v>
@@ -4982,13 +5027,13 @@
         <v>216538</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="M23" s="7">
         <v>454</v>
@@ -4997,13 +5042,13 @@
         <v>492669</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5116,13 @@
         <v>377425</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="H25" s="7">
         <v>415</v>
@@ -5086,13 +5131,13 @@
         <v>452985</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="M25" s="7">
         <v>756</v>
@@ -5101,13 +5146,13 @@
         <v>830410</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,13 +5167,13 @@
         <v>401673</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="H26" s="7">
         <v>342</v>
@@ -5137,13 +5182,13 @@
         <v>370868</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="M26" s="7">
         <v>718</v>
@@ -5152,13 +5197,13 @@
         <v>772541</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,13 +5271,13 @@
         <v>2042940</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="H28" s="7">
         <v>2244</v>
@@ -5241,13 +5286,13 @@
         <v>2411801</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="M28" s="7">
         <v>4144</v>
@@ -5256,13 +5301,13 @@
         <v>4454740</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,13 +5322,13 @@
         <v>1378777</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="H29" s="7">
         <v>1048</v>
@@ -5292,13 +5337,13 @@
         <v>1139171</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="M29" s="7">
         <v>2352</v>
@@ -5307,13 +5352,13 @@
         <v>2517949</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,7 +5438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F7A50E-E3BC-47C0-9682-C038D00153F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D83F3EA-9F9C-4B35-A72C-45CE7EE2B7DB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5410,7 +5455,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5517,13 +5562,13 @@
         <v>175324</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="H4" s="7">
         <v>183</v>
@@ -5532,13 +5577,13 @@
         <v>194337</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="M4" s="7">
         <v>341</v>
@@ -5547,13 +5592,13 @@
         <v>369661</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,13 +5613,13 @@
         <v>116404</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -5583,13 +5628,13 @@
         <v>94366</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="M5" s="7">
         <v>200</v>
@@ -5598,13 +5643,13 @@
         <v>210770</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5672,13 +5717,13 @@
         <v>274839</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="H7" s="7">
         <v>291</v>
@@ -5687,13 +5732,13 @@
         <v>316987</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="M7" s="7">
         <v>549</v>
@@ -5702,13 +5747,13 @@
         <v>591826</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,13 +5768,13 @@
         <v>227736</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="H8" s="7">
         <v>193</v>
@@ -5738,13 +5783,13 @@
         <v>206097</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="M8" s="7">
         <v>410</v>
@@ -5753,13 +5798,13 @@
         <v>433833</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,13 +5872,13 @@
         <v>161303</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="H10" s="7">
         <v>188</v>
@@ -5842,13 +5887,13 @@
         <v>196755</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="M10" s="7">
         <v>360</v>
@@ -5857,13 +5902,13 @@
         <v>358058</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,13 +5923,13 @@
         <v>157262</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="H11" s="7">
         <v>144</v>
@@ -5893,13 +5938,13 @@
         <v>139554</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="M11" s="7">
         <v>307</v>
@@ -5908,13 +5953,13 @@
         <v>296816</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5982,13 +6027,13 @@
         <v>269267</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>185</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="H13" s="7">
         <v>276</v>
@@ -5997,13 +6042,13 @@
         <v>299554</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="M13" s="7">
         <v>534</v>
@@ -6012,13 +6057,13 @@
         <v>568821</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6033,13 +6078,13 @@
         <v>100697</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>381</v>
+        <v>193</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="H14" s="7">
         <v>82</v>
@@ -6048,13 +6093,13 @@
         <v>87729</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>178</v>
@@ -6063,13 +6108,13 @@
         <v>188426</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6137,13 +6182,13 @@
         <v>128185</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>145</v>
@@ -6152,13 +6197,13 @@
         <v>143643</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>274</v>
@@ -6167,13 +6212,13 @@
         <v>271828</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6188,13 +6233,13 @@
         <v>83036</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="H17" s="7">
         <v>78</v>
@@ -6203,13 +6248,13 @@
         <v>74944</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="M17" s="7">
         <v>161</v>
@@ -6218,13 +6263,13 @@
         <v>157980</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6292,13 +6337,13 @@
         <v>96914</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="H19" s="7">
         <v>113</v>
@@ -6307,10 +6352,10 @@
         <v>117764</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>157</v>
@@ -6322,13 +6367,13 @@
         <v>214678</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>230</v>
+        <v>427</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,13 +6388,13 @@
         <v>166209</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="H20" s="7">
         <v>149</v>
@@ -6358,13 +6403,13 @@
         <v>154339</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>149</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="M20" s="7">
         <v>310</v>
@@ -6373,13 +6418,13 @@
         <v>320548</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>221</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6447,13 +6492,13 @@
         <v>310163</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="H22" s="7">
         <v>334</v>
@@ -6462,13 +6507,13 @@
         <v>362909</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="M22" s="7">
         <v>611</v>
@@ -6477,13 +6522,13 @@
         <v>673072</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,13 +6543,13 @@
         <v>342615</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="H23" s="7">
         <v>311</v>
@@ -6513,28 +6558,28 @@
         <v>327273</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="M23" s="7">
         <v>611</v>
       </c>
       <c r="N23" s="7">
-        <v>669888</v>
+        <v>669887</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6576,7 +6621,7 @@
         <v>1222</v>
       </c>
       <c r="N24" s="7">
-        <v>1342960</v>
+        <v>1342959</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -6602,13 +6647,13 @@
         <v>429624</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="H25" s="7">
         <v>416</v>
@@ -6617,13 +6662,13 @@
         <v>464364</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="M25" s="7">
         <v>826</v>
@@ -6632,13 +6677,13 @@
         <v>893988</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6653,13 +6698,13 @@
         <v>347972</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="H26" s="7">
         <v>336</v>
@@ -6668,13 +6713,13 @@
         <v>358098</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="M26" s="7">
         <v>675</v>
@@ -6683,13 +6728,13 @@
         <v>706070</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,13 +6802,13 @@
         <v>1845619</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="H28" s="7">
         <v>1946</v>
@@ -6772,13 +6817,13 @@
         <v>2096313</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="M28" s="7">
         <v>3706</v>
@@ -6790,10 +6835,10 @@
         <v>78</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,13 +6853,13 @@
         <v>1541931</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="H29" s="7">
         <v>1387</v>
@@ -6823,13 +6868,13 @@
         <v>1442399</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="M29" s="7">
         <v>2852</v>
@@ -6841,10 +6886,10 @@
         <v>86</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6924,7 +6969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB089510-2BD1-4CC4-AAB9-166FCD93FDBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06900F1A-485D-4FB9-A4BB-D1173C043742}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6941,7 +6986,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7045,46 +7090,46 @@
         <v>174</v>
       </c>
       <c r="D4" s="7">
-        <v>127778</v>
+        <v>152990</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="H4" s="7">
         <v>261</v>
       </c>
       <c r="I4" s="7">
-        <v>121647</v>
+        <v>129077</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="M4" s="7">
         <v>435</v>
       </c>
       <c r="N4" s="7">
-        <v>249424</v>
+        <v>282067</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7096,46 +7141,46 @@
         <v>157</v>
       </c>
       <c r="D5" s="7">
-        <v>132520</v>
+        <v>158453</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="H5" s="7">
         <v>277</v>
       </c>
       <c r="I5" s="7">
-        <v>149756</v>
+        <v>160558</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="M5" s="7">
         <v>434</v>
       </c>
       <c r="N5" s="7">
-        <v>282276</v>
+        <v>319010</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7147,7 +7192,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7162,7 +7207,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7177,7 +7222,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7200,46 +7245,46 @@
         <v>255</v>
       </c>
       <c r="D7" s="7">
-        <v>344309</v>
+        <v>345121</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="H7" s="7">
         <v>538</v>
       </c>
       <c r="I7" s="7">
-        <v>410345</v>
+        <v>381160</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>494</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>793</v>
       </c>
       <c r="N7" s="7">
-        <v>754655</v>
+        <v>726281</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7251,46 +7296,46 @@
         <v>127</v>
       </c>
       <c r="D8" s="7">
-        <v>174988</v>
+        <v>173269</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="H8" s="7">
         <v>179</v>
       </c>
       <c r="I8" s="7">
-        <v>144221</v>
+        <v>133809</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>502</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="M8" s="7">
         <v>306</v>
       </c>
       <c r="N8" s="7">
-        <v>319209</v>
+        <v>307078</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7302,7 +7347,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7317,7 +7362,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7332,7 +7377,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7355,46 +7400,46 @@
         <v>266</v>
       </c>
       <c r="D10" s="7">
-        <v>226487</v>
+        <v>221176</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="H10" s="7">
         <v>446</v>
       </c>
       <c r="I10" s="7">
-        <v>305499</v>
+        <v>285410</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="M10" s="7">
         <v>712</v>
       </c>
       <c r="N10" s="7">
-        <v>531987</v>
+        <v>506587</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7406,46 +7451,46 @@
         <v>94</v>
       </c>
       <c r="D11" s="7">
-        <v>95753</v>
+        <v>94874</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="H11" s="7">
         <v>84</v>
       </c>
       <c r="I11" s="7">
-        <v>64439</v>
+        <v>60615</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="M11" s="7">
         <v>178</v>
       </c>
       <c r="N11" s="7">
-        <v>160192</v>
+        <v>155489</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7457,7 +7502,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7472,7 +7517,7 @@
         <v>530</v>
       </c>
       <c r="I12" s="7">
-        <v>369938</v>
+        <v>346025</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7487,7 +7532,7 @@
         <v>890</v>
       </c>
       <c r="N12" s="7">
-        <v>692179</v>
+        <v>662076</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7510,46 +7555,46 @@
         <v>253</v>
       </c>
       <c r="D13" s="7">
-        <v>279994</v>
+        <v>271257</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="H13" s="7">
         <v>525</v>
       </c>
       <c r="I13" s="7">
-        <v>374474</v>
+        <v>425468</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="M13" s="7">
         <v>778</v>
       </c>
       <c r="N13" s="7">
-        <v>654468</v>
+        <v>696725</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7561,46 +7606,46 @@
         <v>39</v>
       </c>
       <c r="D14" s="7">
-        <v>42246</v>
+        <v>41300</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="H14" s="7">
         <v>74</v>
       </c>
       <c r="I14" s="7">
-        <v>54082</v>
+        <v>50250</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="M14" s="7">
         <v>113</v>
       </c>
       <c r="N14" s="7">
-        <v>96328</v>
+        <v>91549</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7612,7 +7657,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7627,7 +7672,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7642,7 +7687,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7665,46 +7710,46 @@
         <v>265</v>
       </c>
       <c r="D16" s="7">
-        <v>184638</v>
+        <v>167857</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="H16" s="7">
         <v>479</v>
       </c>
       <c r="I16" s="7">
-        <v>224350</v>
+        <v>202177</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="M16" s="7">
         <v>744</v>
       </c>
       <c r="N16" s="7">
-        <v>408988</v>
+        <v>370035</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7716,46 +7761,46 @@
         <v>14</v>
       </c>
       <c r="D17" s="7">
-        <v>12110</v>
+        <v>10885</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
       </c>
       <c r="I17" s="7">
-        <v>7146</v>
+        <v>6097</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
       </c>
       <c r="N17" s="7">
-        <v>19256</v>
+        <v>16981</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7767,7 +7812,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7782,7 +7827,7 @@
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7797,7 +7842,7 @@
         <v>770</v>
       </c>
       <c r="N18" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7820,46 +7865,46 @@
         <v>284</v>
       </c>
       <c r="D19" s="7">
-        <v>200105</v>
+        <v>193758</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="H19" s="7">
         <v>380</v>
       </c>
       <c r="I19" s="7">
-        <v>211507</v>
+        <v>197084</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="M19" s="7">
         <v>664</v>
       </c>
       <c r="N19" s="7">
-        <v>411612</v>
+        <v>390842</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7871,46 +7916,46 @@
         <v>87</v>
       </c>
       <c r="D20" s="7">
-        <v>77118</v>
+        <v>75878</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="H20" s="7">
         <v>80</v>
       </c>
       <c r="I20" s="7">
-        <v>64115</v>
+        <v>59972</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="M20" s="7">
         <v>167</v>
       </c>
       <c r="N20" s="7">
-        <v>141233</v>
+        <v>135850</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7922,7 +7967,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7937,7 +7982,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7952,7 +7997,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7975,46 +8020,46 @@
         <v>452</v>
       </c>
       <c r="D22" s="7">
-        <v>462439</v>
+        <v>454408</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>580</v>
+        <v>267</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="H22" s="7">
         <v>742</v>
       </c>
       <c r="I22" s="7">
-        <v>513723</v>
+        <v>477442</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="M22" s="7">
         <v>1194</v>
       </c>
       <c r="N22" s="7">
-        <v>976161</v>
+        <v>931850</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8026,46 +8071,46 @@
         <v>145</v>
       </c>
       <c r="D23" s="7">
-        <v>164079</v>
+        <v>168678</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>590</v>
+        <v>276</v>
       </c>
       <c r="H23" s="7">
         <v>218</v>
       </c>
       <c r="I23" s="7">
-        <v>290480</v>
+        <v>371823</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="M23" s="7">
         <v>363</v>
       </c>
       <c r="N23" s="7">
-        <v>454559</v>
+        <v>540501</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8077,7 +8122,7 @@
         <v>597</v>
       </c>
       <c r="D24" s="7">
-        <v>626518</v>
+        <v>623086</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8092,7 +8137,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8107,7 +8152,7 @@
         <v>1557</v>
       </c>
       <c r="N24" s="7">
-        <v>1430720</v>
+        <v>1472351</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8130,46 +8175,46 @@
         <v>666</v>
       </c>
       <c r="D25" s="7">
-        <v>753389</v>
+        <v>839116</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="H25" s="7">
         <v>952</v>
       </c>
       <c r="I25" s="7">
-        <v>779730</v>
+        <v>644281</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="M25" s="7">
         <v>1618</v>
       </c>
       <c r="N25" s="7">
-        <v>1533120</v>
+        <v>1483398</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>605</v>
+        <v>556</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8181,46 +8226,46 @@
         <v>96</v>
       </c>
       <c r="D26" s="7">
-        <v>106039</v>
+        <v>89604</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="H26" s="7">
         <v>110</v>
       </c>
       <c r="I26" s="7">
-        <v>88704</v>
+        <v>73450</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="M26" s="7">
         <v>206</v>
       </c>
       <c r="N26" s="7">
-        <v>194742</v>
+        <v>163054</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>613</v>
+        <v>565</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8232,7 +8277,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8247,7 +8292,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8262,7 +8307,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8285,46 +8330,46 @@
         <v>2615</v>
       </c>
       <c r="D28" s="7">
-        <v>2579138</v>
+        <v>2645683</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="H28" s="7">
         <v>4323</v>
       </c>
       <c r="I28" s="7">
-        <v>2941275</v>
+        <v>2742099</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="M28" s="7">
         <v>6938</v>
       </c>
       <c r="N28" s="7">
-        <v>5520414</v>
+        <v>5387783</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8336,46 +8381,46 @@
         <v>759</v>
       </c>
       <c r="D29" s="7">
-        <v>804853</v>
+        <v>812941</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="H29" s="7">
         <v>1034</v>
       </c>
       <c r="I29" s="7">
-        <v>862943</v>
+        <v>916573</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="M29" s="7">
         <v>1793</v>
       </c>
       <c r="N29" s="7">
-        <v>1667796</v>
+        <v>1729513</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8387,7 +8432,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3383991</v>
+        <v>3458624</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8402,7 +8447,7 @@
         <v>5357</v>
       </c>
       <c r="I30" s="7">
-        <v>3804218</v>
+        <v>3658672</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8417,7 +8462,7 @@
         <v>8731</v>
       </c>
       <c r="N30" s="7">
-        <v>7188210</v>
+        <v>7117296</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
